--- a/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,87</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>82,35%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,54</t>
+          <t>-1,59; 2,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,38</t>
+          <t>-3,18; 3,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,65</t>
+          <t>-0,52; 4,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,66</t>
+          <t>1,55; 8,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 179,23</t>
+          <t>-28,1; 78,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,85; 182,19</t>
+          <t>-42,58; 83,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 93,16</t>
+          <t>-14,98; 244,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 78,39</t>
+          <t>18,93; 183,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4,4</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>157,83%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>76,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>55,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>89,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58,63%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,62</t>
+          <t>-1,1; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 9,21</t>
+          <t>0,26; 7,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,44</t>
+          <t>0,1; 6,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,2</t>
+          <t>-0,5; 8,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,05; 465,5</t>
+          <t>-17,71; 118,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 163,51</t>
+          <t>0,57; 209,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 206,37</t>
+          <t>-10,07; 354,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 149,08</t>
+          <t>-5,57; 151,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>12,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>14,29</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>264,03%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>421,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>260,84%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>110,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>128,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>70,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 14,11</t>
+          <t>-0,07; 7,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 26,3</t>
+          <t>6,95; 20,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 11,86</t>
+          <t>2,96; 13,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,49</t>
+          <t>2,64; 26,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,53; 698,01</t>
+          <t>-1,43; 122,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 317,96</t>
+          <t>106,35; 1853,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,93; 294,35</t>
+          <t>49,87; 719,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 136,62</t>
+          <t>9,81; 313,45</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>52,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>62,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,6</t>
+          <t>0,35; 5,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 12,47</t>
+          <t>-5,03; 3,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,11</t>
+          <t>-0,36; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,74</t>
+          <t>0,87; 12,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 156,13</t>
+          <t>3,77; 91,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 178,01</t>
+          <t>-66,4; 58,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 37,65</t>
+          <t>-6,43; 150,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 100,04</t>
+          <t>1,27; 172,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>10,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>15,55</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,31</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,38</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>109,29%</t>
+          <t>149,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>380,13%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>425,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>179,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>150,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,45</t>
+          <t>5,5; 12,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 24,47</t>
+          <t>4,08; 15,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,9</t>
+          <t>0,31; 8,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,8</t>
+          <t>6,93; 24,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,59; 321,38</t>
+          <t>63,88; 300,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,51; 3047,09</t>
+          <t>87,59; 1150,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,71; 325,49</t>
+          <t>-6,03; 272,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,17; 275,41</t>
+          <t>63,33; 2259,48</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,78</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>3962,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>253,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>334,63%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3444,1%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 17,74</t>
+          <t>13,53; 19,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 12,59</t>
+          <t>0,89; 12,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,46</t>
+          <t>-12,25; 33,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,23</t>
+          <t>-11,45; 12,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 272,02</t>
+          <t>-9,7; 1810,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,29; 1005,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>919,13; —</t>
+          <t>-59,58; 219,37</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>108,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>78,38%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,45</t>
+          <t>3,73; 6,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,19</t>
+          <t>2,16; 7,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,3</t>
+          <t>1,98; 5,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,38</t>
+          <t>4,04; 9,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,84; 150,35</t>
+          <t>56,46; 114,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,96; 130,52</t>
+          <t>44,89; 213,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,94; 130,28</t>
+          <t>40,4; 146,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,13; 129,59</t>
+          <t>40,64; 129,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,84</t>
+          <t>-0,57; 3,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,39</t>
+          <t>-3,3; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,47</t>
+          <t>1,47; 8,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 78,36</t>
+          <t>-12,96; 118,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 83,56</t>
+          <t>-45,24; 81,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,93; 183,22</t>
+          <t>18,52; 188,01</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,56</t>
+          <t>-0,74; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 7,68</t>
+          <t>0,43; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 8,94</t>
+          <t>-0,33; 8,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 118,37</t>
+          <t>-14,14; 150,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 209,55</t>
+          <t>3,1; 205,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 151,61</t>
+          <t>-6,39; 143,66</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,82</t>
+          <t>-0,38; 7,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 20,84</t>
+          <t>6,82; 20,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 26,49</t>
+          <t>2,81; 27,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 122,5</t>
+          <t>-6,07; 108,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>106,35; 1853,73</t>
+          <t>97,47; 1978,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 313,45</t>
+          <t>8,1; 301,14</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,64</t>
+          <t>0,42; 5,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,04</t>
+          <t>-5,27; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 12,8</t>
+          <t>0,04; 12,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 91,58</t>
+          <t>4,86; 88,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 58,29</t>
+          <t>-67,72; 56,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 172,34</t>
+          <t>-1,76; 175,72</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>149,92%</t>
+          <t>148,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,73</t>
+          <t>5,33; 12,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 15,83</t>
+          <t>4,2; 15,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 24,56</t>
+          <t>7,95; 24,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,88; 300,48</t>
+          <t>60,63; 294,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,59; 1150,56</t>
+          <t>93,57; 1036,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,33; 2259,48</t>
+          <t>68,27; 2379,32</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3962,14%</t>
+          <t>2447,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,82</t>
+          <t>11,72; 17,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,64</t>
+          <t>0,31; 12,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 12,75</t>
+          <t>-12,81; 12,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 1810,36</t>
+          <t>-5,38; 1468,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,58; 219,37</t>
+          <t>-58,11; 263,6</t>
         </is>
       </c>
     </row>
@@ -1220,14 +1220,14 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>4,93</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>3,49</t>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,12</t>
+          <t>3,64; 5,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,04</t>
+          <t>2,25; 6,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,24</t>
+          <t>3,87; 8,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,46; 114,91</t>
+          <t>57,15; 116,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,89; 213,13</t>
+          <t>50,67; 200,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,64; 129,04</t>
+          <t>37,76; 127,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>37,74%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>65,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>82,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,04; 3,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 8,42</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 4,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-0,57; 3,83</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 3,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 4,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 8,42</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-43,31; 83,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18,52; 188,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; 244,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-12,96; 118,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-45,24; 81,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-14,98; 244,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,52; 188,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,19</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>79,88%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>44,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>76,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>108,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>55,15%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,41; 7,21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 8,76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 6,56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-0,74; 5,08</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 7,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 6,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 8,76</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>3,93; 215,6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 143,66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 354,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-14,14; 150,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 205,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-10,07; 354,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; 143,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14,29</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,3</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,29</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>140,93%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>110,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>260,84%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>45,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>421,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>260,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>110,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,26; 15,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 27,17</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 13,49</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,38; 7,03</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 20,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 13,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 27,17</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>32,59; 313,78</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 301,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49,87; 719,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-6,07; 108,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>97,47; 1978,57</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>49,87; 719,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 301,14</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,79</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62,99%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>38,76%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-7,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>52,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>62,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,55; 4,77</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 12,4</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 5,95</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,42; 5,15</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 2,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 5,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 12,4</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-9,52; 106,83</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 175,72</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 150,89</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>4,86; 88,38</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-67,72; 56,53</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 150,89</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 175,72</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,81</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>9,08</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,95</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,55</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>376,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>425,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>148,8%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>380,13%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>95,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>425,4%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7,96; 15,44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 24,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 8,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>5,33; 12,71</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 15,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 8,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 24,06</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>142,72; 936,02</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68,27; 2379,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 272,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>60,63; 294,84</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>93,57; 1036,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 272,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>68,27; 2379,32</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,01</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>14,59</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,89</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>285,31%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>2447,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>253,69%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>65,43%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,67; 12,3</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 12,96</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 33,87</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>11,72; 17,57</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 12,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,25; 33,87</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-12,81; 12,96</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>5,52; 1580,39</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-58,11; 263,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 1468,65</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-58,11; 263,6</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,72</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>104,88%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78,38%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88,05%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>84,55%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>108,16%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>88,05%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>78,38%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,91; 6,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 8,97</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,02</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>3,64; 5,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 6,99</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 5,02</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 8,97</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>67,57; 152,07</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>37,76; 127,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40,4; 146,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>57,15; 116,42</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>50,67; 200,02</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>40,4; 146,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>37,76; 127,05</t>
         </is>
       </c>
     </row>
